--- a/pokemonitems.xlsx
+++ b/pokemonitems.xlsx
@@ -14,111 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>matched</t>
   </si>
   <si>
-    <t>master-ball</t>
+    <t>charizardite-x</t>
   </si>
   <si>
-    <t>ultra-ball</t>
-  </si>
-  <si>
-    <t>great-ball</t>
-  </si>
-  <si>
-    <t>poke-ball</t>
-  </si>
-  <si>
-    <t>safari-ball</t>
-  </si>
-  <si>
-    <t>net-ball</t>
-  </si>
-  <si>
-    <t>dive-ball</t>
-  </si>
-  <si>
-    <t>nest-ball</t>
-  </si>
-  <si>
-    <t>repeat-ball</t>
-  </si>
-  <si>
-    <t>timer-ball</t>
-  </si>
-  <si>
-    <t>luxury-ball</t>
-  </si>
-  <si>
-    <t>premier-ball</t>
-  </si>
-  <si>
-    <t>dusk-ball</t>
-  </si>
-  <si>
-    <t>heal-ball</t>
-  </si>
-  <si>
-    <t>quick-ball</t>
-  </si>
-  <si>
-    <t>cherish-ball</t>
-  </si>
-  <si>
-    <t>smoke-ball</t>
-  </si>
-  <si>
-    <t>light-ball</t>
-  </si>
-  <si>
-    <t>iron-ball</t>
-  </si>
-  <si>
-    <t>lure-ball</t>
-  </si>
-  <si>
-    <t>level-ball</t>
-  </si>
-  <si>
-    <t>moon-ball</t>
-  </si>
-  <si>
-    <t>heavy-ball</t>
-  </si>
-  <si>
-    <t>fast-ball</t>
-  </si>
-  <si>
-    <t>friend-ball</t>
-  </si>
-  <si>
-    <t>love-ball</t>
-  </si>
-  <si>
-    <t>park-ball</t>
-  </si>
-  <si>
-    <t>sport-ball</t>
-  </si>
-  <si>
-    <t>air-balloon</t>
-  </si>
-  <si>
-    <t>dream-ball</t>
-  </si>
-  <si>
-    <t>snowball</t>
-  </si>
-  <si>
-    <t>beast-ball</t>
-  </si>
-  <si>
-    <t>left-poke-ball</t>
-  </si>
-  <si>
-    <t>polished-mud-ball</t>
+    <t>charizardite-y</t>
   </si>
 </sst>
 </file>
@@ -476,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,166 +401,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
